--- a/data/input/absenteeism_data_37.xlsx
+++ b/data/input/absenteeism_data_37.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>22717</v>
+        <v>30085</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Renan Jesus</t>
+          <t>Sabrina Ramos</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,80 +494,80 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45101</v>
+        <v>45105</v>
       </c>
       <c r="G2" t="n">
-        <v>11791.23</v>
+        <v>5646.85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>38374</v>
+        <v>89291</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Stephany Rocha</t>
+          <t>Melissa Dias</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45095</v>
+        <v>45105</v>
       </c>
       <c r="G3" t="n">
-        <v>5323.49</v>
+        <v>3077.48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>12578</v>
+        <v>43024</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Luiz Felipe Rodrigues</t>
+          <t>Srta. Maria Sophia Nascimento</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45096</v>
+        <v>45082</v>
       </c>
       <c r="G4" t="n">
-        <v>9684.48</v>
+        <v>6312.61</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>44314</v>
+        <v>46831</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>João Gabriel Azevedo</t>
+          <t>Sofia Ramos</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,82 +584,82 @@
         <v>5</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45090</v>
+        <v>45104</v>
       </c>
       <c r="G5" t="n">
-        <v>3951.19</v>
+        <v>6932.54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>46502</v>
+        <v>82770</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Laís Santos</t>
+          <t>Sofia Cavalcanti</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>45104</v>
       </c>
       <c r="G6" t="n">
-        <v>12300.01</v>
+        <v>3021.32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>99299</v>
+        <v>70359</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Joana Monteiro</t>
+          <t>Danilo da Mata</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45078</v>
+        <v>45088</v>
       </c>
       <c r="G7" t="n">
-        <v>4493.45</v>
+        <v>11026.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>59798</v>
+        <v>38840</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ana Julia Ramos</t>
+          <t>Luiz Henrique Ramos</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,27 +668,27 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>45087</v>
       </c>
       <c r="G8" t="n">
-        <v>10244.34</v>
+        <v>10180.79</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>12211</v>
+        <v>39234</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ana Luiza Rodrigues</t>
+          <t>Cauê Moraes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -697,27 +697,27 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45104</v>
+        <v>45085</v>
       </c>
       <c r="G9" t="n">
-        <v>9987.309999999999</v>
+        <v>10386.29</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>74778</v>
+        <v>79514</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dr. Pedro Rodrigues</t>
+          <t>Luiz Fernando Castro</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,27 +726,27 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45085</v>
+        <v>45104</v>
       </c>
       <c r="G10" t="n">
-        <v>2640.57</v>
+        <v>8898.07</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>40575</v>
+        <v>5920</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Calebe Sales</t>
+          <t>Sra. Maysa Souza</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45079</v>
+        <v>45100</v>
       </c>
       <c r="G11" t="n">
-        <v>12024.9</v>
+        <v>7327.02</v>
       </c>
     </row>
   </sheetData>
